--- a/提单号识别船东/船东提单号识别.xlsx
+++ b/提单号识别船东/船东提单号识别.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="11670"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -816,13 +816,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -872,13 +865,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -939,7 +925,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -952,9 +953,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -981,12 +981,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -994,168 +1156,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,10 +1289,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1301,133 +1301,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1841,7 +1841,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
